--- a/Cuadre_Respuestas_Usuario.xlsx
+++ b/Cuadre_Respuestas_Usuario.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\UVG-Reportes-Shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2E790-03B1-4587-8823-D606CB00A1CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FDA763-C774-4422-ABF2-0E66F94B8328}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'result 1'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'result 1'!$A$1:$F$196</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -204,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +384,48 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -545,8 +587,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,15 +951,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
@@ -938,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1889</v>
       </c>
@@ -958,7 +1008,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1890</v>
       </c>
@@ -978,7 +1028,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1891</v>
       </c>
@@ -998,7 +1048,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1892</v>
       </c>
@@ -1018,7 +1068,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1893</v>
       </c>
@@ -1038,7 +1088,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1894</v>
       </c>
@@ -1058,7 +1108,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1895</v>
       </c>
@@ -1078,7 +1128,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1896</v>
       </c>
@@ -1098,7 +1148,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1897</v>
       </c>
@@ -1118,7 +1168,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1898</v>
       </c>
@@ -1138,7 +1188,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1899</v>
       </c>
@@ -1158,7 +1208,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1900</v>
       </c>
@@ -1178,7 +1228,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1901</v>
       </c>
@@ -1198,7 +1248,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1902</v>
       </c>
@@ -1218,7 +1268,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1903</v>
       </c>
@@ -1238,7 +1288,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -1258,7 +1308,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -1278,7 +1328,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -1298,7 +1348,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1318,7 +1368,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -1338,7 +1388,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -1358,7 +1408,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -1378,7 +1428,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -1398,7 +1448,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -1418,7 +1468,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -1458,7 +1508,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -1478,7 +1528,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -1498,7 +1548,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -1519,26 +1569,26 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>2023</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>61</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>1909</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2059</v>
       </c>
@@ -1558,7 +1608,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2060</v>
       </c>
@@ -1578,7 +1628,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2061</v>
       </c>
@@ -1598,7 +1648,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2062</v>
       </c>
@@ -1618,7 +1668,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2063</v>
       </c>
@@ -1638,7 +1688,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2064</v>
       </c>
@@ -1658,7 +1708,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2065</v>
       </c>
@@ -1678,7 +1728,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2066</v>
       </c>
@@ -1698,7 +1748,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2067</v>
       </c>
@@ -1718,7 +1768,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2068</v>
       </c>
@@ -1738,7 +1788,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2069</v>
       </c>
@@ -1758,7 +1808,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2070</v>
       </c>
@@ -1778,7 +1828,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2071</v>
       </c>
@@ -1798,7 +1848,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2072</v>
       </c>
@@ -1819,26 +1869,26 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2074</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="1">
+        <v>2246</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>61</v>
       </c>
-      <c r="F46">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="1">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2147</v>
       </c>
@@ -1858,7 +1908,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2145</v>
       </c>
@@ -1878,7 +1928,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2146</v>
       </c>
@@ -1898,7 +1948,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2144</v>
       </c>
@@ -1918,7 +1968,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2148</v>
       </c>
@@ -1938,7 +1988,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2150</v>
       </c>
@@ -1958,7 +2008,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2152</v>
       </c>
@@ -1978,7 +2028,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2153</v>
       </c>
@@ -1998,7 +2048,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2154</v>
       </c>
@@ -2018,7 +2068,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2157</v>
       </c>
@@ -2039,26 +2089,26 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>2159</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="2">
+        <v>2074</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>61</v>
       </c>
-      <c r="F57">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="2">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2149</v>
       </c>
@@ -2078,7 +2128,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2151</v>
       </c>
@@ -2098,7 +2148,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2155</v>
       </c>
@@ -2118,7 +2168,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2156</v>
       </c>
@@ -2138,7 +2188,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2230</v>
       </c>
@@ -2158,7 +2208,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2231</v>
       </c>
@@ -2178,7 +2228,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2232</v>
       </c>
@@ -2198,7 +2248,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2234</v>
       </c>
@@ -2218,7 +2268,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2233</v>
       </c>
@@ -2238,7 +2288,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2235</v>
       </c>
@@ -2258,7 +2308,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2236</v>
       </c>
@@ -2278,7 +2328,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2237</v>
       </c>
@@ -2298,7 +2348,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2238</v>
       </c>
@@ -2318,7 +2368,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2239</v>
       </c>
@@ -2338,7 +2388,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2240</v>
       </c>
@@ -2358,7 +2408,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2241</v>
       </c>
@@ -2378,7 +2428,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2242</v>
       </c>
@@ -2398,7 +2448,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2243</v>
       </c>
@@ -2419,26 +2469,26 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>2246</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" s="2">
+        <v>2435</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>61</v>
       </c>
-      <c r="F76">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F76" s="2">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2317</v>
       </c>
@@ -2458,7 +2508,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2318</v>
       </c>
@@ -2478,7 +2528,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2319</v>
       </c>
@@ -2498,7 +2548,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2326</v>
       </c>
@@ -2519,26 +2569,26 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>2329</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" s="2">
+        <v>2667</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>61</v>
       </c>
-      <c r="F81">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F81" s="2">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2314</v>
       </c>
@@ -2558,7 +2608,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2315</v>
       </c>
@@ -2578,7 +2628,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2316</v>
       </c>
@@ -2598,7 +2648,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2320</v>
       </c>
@@ -2618,7 +2668,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2321</v>
       </c>
@@ -2638,7 +2688,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2322</v>
       </c>
@@ -2658,7 +2708,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2323</v>
       </c>
@@ -2678,7 +2728,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2324</v>
       </c>
@@ -2698,7 +2748,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2325</v>
       </c>
@@ -2718,7 +2768,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2327</v>
       </c>
@@ -2738,7 +2788,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2401</v>
       </c>
@@ -2758,7 +2808,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2403</v>
       </c>
@@ -2778,7 +2828,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2404</v>
       </c>
@@ -2798,7 +2848,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2405</v>
       </c>
@@ -2818,7 +2868,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2406</v>
       </c>
@@ -2838,7 +2888,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2407</v>
       </c>
@@ -2858,7 +2908,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2408</v>
       </c>
@@ -2878,7 +2928,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2409</v>
       </c>
@@ -2898,7 +2948,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2399</v>
       </c>
@@ -2918,7 +2968,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2400</v>
       </c>
@@ -2938,7 +2988,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2402</v>
       </c>
@@ -2958,7 +3008,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2410</v>
       </c>
@@ -2978,7 +3028,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2411</v>
       </c>
@@ -2998,7 +3048,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2412</v>
       </c>
@@ -3018,7 +3068,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2413</v>
       </c>
@@ -3038,7 +3088,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2420</v>
       </c>
@@ -3058,7 +3108,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2421</v>
       </c>
@@ -3078,7 +3128,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2422</v>
       </c>
@@ -3098,7 +3148,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2423</v>
       </c>
@@ -3118,7 +3168,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2425</v>
       </c>
@@ -3138,7 +3188,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2424</v>
       </c>
@@ -3158,7 +3208,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2426</v>
       </c>
@@ -3178,7 +3228,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2427</v>
       </c>
@@ -3198,7 +3248,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2428</v>
       </c>
@@ -3218,7 +3268,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2429</v>
       </c>
@@ -3238,7 +3288,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2430</v>
       </c>
@@ -3258,7 +3308,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2431</v>
       </c>
@@ -3278,7 +3328,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2432</v>
       </c>
@@ -3298,7 +3348,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2433</v>
       </c>
@@ -3319,26 +3369,26 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>2435</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="4">
+        <v>2159</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="4">
         <v>61</v>
       </c>
-      <c r="F121">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F121" s="4">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2505</v>
       </c>
@@ -3358,7 +3408,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2506</v>
       </c>
@@ -3378,7 +3428,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2511</v>
       </c>
@@ -3398,7 +3448,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2512</v>
       </c>
@@ -3418,7 +3468,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2513</v>
       </c>
@@ -3438,7 +3488,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2514</v>
       </c>
@@ -3458,7 +3508,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2517</v>
       </c>
@@ -3478,7 +3528,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2518</v>
       </c>
@@ -3498,7 +3548,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2507</v>
       </c>
@@ -3518,7 +3568,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2508</v>
       </c>
@@ -3538,7 +3588,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2509</v>
       </c>
@@ -3558,7 +3608,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2510</v>
       </c>
@@ -3578,7 +3628,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2515</v>
       </c>
@@ -3598,7 +3648,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2516</v>
       </c>
@@ -3619,26 +3669,26 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>2520</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="A136" s="4">
+        <v>2645</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C136" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="4">
         <v>61</v>
       </c>
-      <c r="F136">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F136" s="4">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2590</v>
       </c>
@@ -3658,7 +3708,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2591</v>
       </c>
@@ -3678,7 +3728,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2592</v>
       </c>
@@ -3698,7 +3748,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2593</v>
       </c>
@@ -3718,7 +3768,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2594</v>
       </c>
@@ -3738,7 +3788,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2595</v>
       </c>
@@ -3758,7 +3808,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2596</v>
       </c>
@@ -3778,7 +3828,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2597</v>
       </c>
@@ -3798,7 +3848,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2598</v>
       </c>
@@ -3818,7 +3868,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2599</v>
       </c>
@@ -3838,7 +3888,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2600</v>
       </c>
@@ -3858,7 +3908,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2601</v>
       </c>
@@ -3878,7 +3928,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2602</v>
       </c>
@@ -3898,7 +3948,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2603</v>
       </c>
@@ -3919,26 +3969,26 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151">
-        <v>2605</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="A151" s="5">
+        <v>2627</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C151" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="5">
         <v>61</v>
       </c>
-      <c r="F151">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F151" s="5">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2610</v>
       </c>
@@ -3958,7 +4008,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2611</v>
       </c>
@@ -3978,7 +4028,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2613</v>
       </c>
@@ -3998,7 +4048,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2612</v>
       </c>
@@ -4018,7 +4068,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2614</v>
       </c>
@@ -4038,7 +4088,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2616</v>
       </c>
@@ -4058,7 +4108,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2617</v>
       </c>
@@ -4078,7 +4128,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2618</v>
       </c>
@@ -4098,7 +4148,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2619</v>
       </c>
@@ -4118,7 +4168,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2620</v>
       </c>
@@ -4138,7 +4188,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2621</v>
       </c>
@@ -4158,7 +4208,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2623</v>
       </c>
@@ -4178,7 +4228,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2622</v>
       </c>
@@ -4198,7 +4248,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2624</v>
       </c>
@@ -4219,26 +4269,26 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166">
-        <v>2627</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="A166" s="6">
+        <v>2329</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C166" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="C166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="6">
         <v>61</v>
       </c>
-      <c r="F166">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F166" s="6">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2635</v>
       </c>
@@ -4258,7 +4308,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>2633</v>
       </c>
@@ -4278,7 +4328,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2634</v>
       </c>
@@ -4298,7 +4348,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2632</v>
       </c>
@@ -4318,7 +4368,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2631</v>
       </c>
@@ -4338,7 +4388,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2637</v>
       </c>
@@ -4358,7 +4408,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2638</v>
       </c>
@@ -4378,7 +4428,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2641</v>
       </c>
@@ -4398,7 +4448,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2639</v>
       </c>
@@ -4418,7 +4468,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2640</v>
       </c>
@@ -4438,7 +4488,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2642</v>
       </c>
@@ -4458,7 +4508,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2643</v>
       </c>
@@ -4478,7 +4528,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2644</v>
       </c>
@@ -4499,26 +4549,26 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>2645</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="A180" s="7">
+        <v>2520</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C180" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="C180" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="7">
         <v>61</v>
       </c>
-      <c r="F180">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F180" s="7">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2647</v>
       </c>
@@ -4538,7 +4588,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2653</v>
       </c>
@@ -4558,7 +4608,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2654</v>
       </c>
@@ -4578,7 +4628,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2655</v>
       </c>
@@ -4598,7 +4648,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2656</v>
       </c>
@@ -4618,7 +4668,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2658</v>
       </c>
@@ -4638,7 +4688,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2663</v>
       </c>
@@ -4658,7 +4708,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2666</v>
       </c>
@@ -4678,7 +4728,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2660</v>
       </c>
@@ -4698,7 +4748,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2662</v>
       </c>
@@ -4718,7 +4768,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2657</v>
       </c>
@@ -4738,7 +4788,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2659</v>
       </c>
@@ -4758,7 +4808,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2661</v>
       </c>
@@ -4778,7 +4828,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2664</v>
       </c>
@@ -4798,7 +4848,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2665</v>
       </c>
@@ -4819,27 +4869,36 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196">
-        <v>2667</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="A196" s="3">
+        <v>2605</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C196" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="C196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="3">
         <v>61</v>
       </c>
-      <c r="F196">
-        <v>1945</v>
+      <c r="F196" s="3">
+        <v>2525</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{4E6065DF-00F2-4075-BCFD-AAF9D65B5DE6}"/>
+  <autoFilter ref="A1:F196" xr:uid="{4E6065DF-00F2-4075-BCFD-AAF9D65B5DE6}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Si"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:F196">
+      <sortCondition ref="F1:F196"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>